--- a/Matury CKE/2022 Czerwiec/Excel/Zadanie5.xlsx
+++ b/Matury CKE/2022 Czerwiec/Excel/Zadanie5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Matury-Informatyka\Matury CKE\2022 Czerwiec\ACCESS EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Matury-Informatyka\Matury CKE\2022 Czerwiec\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43423614-4D63-4F77-8BF5-1F691965B0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87327484-ECE0-4DFC-8209-4A702074A700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{B2519E7B-5D23-409E-858B-6309EC87F648}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B2519E7B-5D23-409E-858B-6309EC87F648}"/>
   </bookViews>
   <sheets>
     <sheet name="5_1" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -273,20 +273,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="diamond"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -343,20 +330,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="square"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -413,20 +387,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="triangle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -2231,7 +2192,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{72A0C3C3-3709-4A23-A0F2-3F6F22CFE231}" name="Tabela przestawna1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{72A0C3C3-3709-4A23-A0F2-3F6F22CFE231}" name="Tabela przestawna1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:D7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" showAll="0"/>
@@ -2651,8 +2612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598EAC7E-F4FF-4151-B3C7-7648E0481972}">
   <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2704,8 +2665,8 @@
         <v>44804</v>
       </c>
       <c r="G2" s="2">
-        <f>INDEX(temperatury[Data],MATCH(E2,temperatury[Temperatura2],0)-E2)</f>
-        <v>44789</v>
+        <f>INDEX(temperatury[Data],MATCH(E2,temperatury[Temperatura2],0)-E2+1)</f>
+        <v>44790</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -3904,7 +3865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EFE8353-257B-41B6-BFBB-75CC7DB6E6C8}">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
